--- a/ProcessHierarchyNetwork.xlsx
+++ b/ProcessHierarchyNetwork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\InUse\Grant Applications\NSF Geoinformatics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852BC11F-3CBA-4FC5-9FF6-F5367ECB4642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB8EDE2-0316-46D2-BD4D-4EDCFAF47C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{FBC30338-52AA-457C-A458-1860DE7177AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{FBC30338-52AA-457C-A458-1860DE7177AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Taxonomy" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="613">
   <si>
     <t>Overland Flow</t>
   </si>
@@ -888,12 +888,6 @@
     <t>Sub.Soil.Matrix.Finger</t>
   </si>
   <si>
-    <t>Sub.Soil.Matrix.Funnel</t>
-  </si>
-  <si>
-    <t>Sub.Soil.Matrix.Mix</t>
-  </si>
-  <si>
     <t>Sub.Soil.Matrix.Capil</t>
   </si>
   <si>
@@ -1861,6 +1855,24 @@
   </si>
   <si>
     <t>Wetted stream length, Channel expansion, Extension of channel network</t>
+  </si>
+  <si>
+    <t>Sub.Soil.Mix</t>
+  </si>
+  <si>
+    <t>Lateral unsaturated flow</t>
+  </si>
+  <si>
+    <t>Sub.Soils.Lat</t>
+  </si>
+  <si>
+    <t>Sub.Soil.Lat.Funnel</t>
+  </si>
+  <si>
+    <t>(Gannon et al., 2017)</t>
+  </si>
+  <si>
+    <t>Gannon, John P., Kevin J. McGuire, Scott W. Bailey, Rebecca R. Bourgault, and Donald S. Ross. Lateral Water Flux in the Unsaturated Zone: A Mechanism for the Formation of Spatial Soil Heterogeneity in a Headwater Catchment. Hydrol. Process. 31, no. 20 (2017): 3568–79.</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +2010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2016,6 +2028,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2336,10 +2351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D39E0D-93EA-4A43-A3E5-65EE0047ACB5}">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B112" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2370,7 +2385,7 @@
         <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>147</v>
@@ -2409,7 +2424,7 @@
         <v>93</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2428,7 +2443,7 @@
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H5" s="12"/>
     </row>
@@ -2447,7 +2462,7 @@
         <v>101</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2458,7 +2473,7 @@
         <v>77</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>82</v>
@@ -2467,7 +2482,7 @@
         <v>102</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2478,7 +2493,7 @@
         <v>76</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>82</v>
@@ -2487,7 +2502,7 @@
         <v>103</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2505,7 +2520,7 @@
         <v>232</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2525,7 +2540,7 @@
         <v>104</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2543,7 +2558,7 @@
         <v>105</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2561,7 +2576,7 @@
         <v>106</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2611,7 +2626,7 @@
         <v>234</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2629,7 +2644,7 @@
         <v>235</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2649,7 +2664,7 @@
         <v>236</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2667,7 +2682,7 @@
         <v>95</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2687,7 +2702,7 @@
         <v>96</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2705,7 +2720,7 @@
         <v>237</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2729,7 +2744,7 @@
         <v>185</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>68</v>
@@ -2738,7 +2753,7 @@
         <v>239</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2756,7 +2771,7 @@
         <v>240</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2774,7 +2789,7 @@
         <v>241</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2785,7 +2800,7 @@
         <v>188</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>68</v>
@@ -2794,7 +2809,7 @@
         <v>242</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2805,7 +2820,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>228</v>
@@ -2814,7 +2829,7 @@
         <v>244</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2822,17 +2837,17 @@
         <v>4</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15" t="s">
         <v>229</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2840,17 +2855,17 @@
         <v>4</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15" t="s">
         <v>229</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2870,7 +2885,7 @@
         <v>243</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2881,7 +2896,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>84</v>
@@ -2890,7 +2905,7 @@
         <v>245</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2901,7 +2916,7 @@
         <v>57</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>84</v>
@@ -2910,7 +2925,7 @@
         <v>246</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2921,7 +2936,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>84</v>
@@ -2930,7 +2945,7 @@
         <v>248</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2941,7 +2956,7 @@
         <v>58</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>84</v>
@@ -2950,7 +2965,7 @@
         <v>247</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2961,7 +2976,7 @@
         <v>51</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>65</v>
@@ -2970,7 +2985,7 @@
         <v>249</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2988,7 +3003,7 @@
         <v>250</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3006,7 +3021,7 @@
         <v>251</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3017,7 +3032,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>66</v>
@@ -3026,7 +3041,7 @@
         <v>252</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3037,7 +3052,7 @@
         <v>59</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>84</v>
@@ -3046,7 +3061,7 @@
         <v>253</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3064,7 +3079,7 @@
         <v>254</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3075,7 +3090,7 @@
         <v>62</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>66</v>
@@ -3084,7 +3099,7 @@
         <v>255</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3104,7 +3119,7 @@
         <v>256</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3122,7 +3137,7 @@
         <v>257</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3155,7 +3170,7 @@
         <v>259</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3173,7 +3188,7 @@
         <v>260</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3204,7 +3219,7 @@
         <v>262</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3224,10 +3239,10 @@
         <v>263</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3245,7 +3260,7 @@
         <v>264</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3263,7 +3278,7 @@
         <v>265</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3279,10 +3294,10 @@
         <v>267</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3297,10 +3312,10 @@
         <v>228</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3320,7 +3335,7 @@
         <v>268</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3328,19 +3343,19 @@
         <v>182</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>84</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3358,7 +3373,7 @@
         <v>269</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3376,7 +3391,7 @@
         <v>99</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3396,7 +3411,7 @@
         <v>107</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3416,10 +3431,10 @@
         <v>270</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3437,7 +3452,7 @@
         <v>108</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3457,7 +3472,7 @@
         <v>109</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3475,7 +3490,7 @@
         <v>110</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3493,7 +3508,7 @@
         <v>271</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3511,7 +3526,7 @@
         <v>272</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3529,7 +3544,7 @@
         <v>111</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3562,10 +3577,10 @@
         <v>273</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3576,7 +3591,7 @@
         <v>52</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>65</v>
@@ -3585,7 +3600,7 @@
         <v>274</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3603,7 +3618,7 @@
         <v>113</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3614,7 +3629,7 @@
         <v>27</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>84</v>
@@ -3623,7 +3638,7 @@
         <v>275</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3643,7 +3658,7 @@
         <v>114</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3663,7 +3678,7 @@
         <v>276</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3689,7 +3704,7 @@
         <v>156</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>228</v>
@@ -3698,7 +3713,7 @@
         <v>278</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3709,7 +3724,7 @@
         <v>36</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>228</v>
@@ -3718,7 +3733,7 @@
         <v>279</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3736,7 +3751,7 @@
         <v>280</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3789,7 +3804,7 @@
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3810,7 +3825,7 @@
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3831,7 +3846,7 @@
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H80" s="2"/>
     </row>
@@ -3853,7 +3868,7 @@
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -3874,7 +3889,7 @@
       </c>
       <c r="F82" s="8"/>
       <c r="G82" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H82" s="9"/>
     </row>
@@ -3896,7 +3911,7 @@
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H83" s="2"/>
     </row>
@@ -3905,524 +3920,523 @@
         <v>165</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="D84" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F85" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>437</v>
+      </c>
       <c r="G85" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C86" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="D86" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>206</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>439</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="F87" s="4"/>
       <c r="G87" s="4" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+    <row r="88" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="B88" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" s="8"/>
       <c r="D88" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4" t="s">
+      <c r="F88" s="4" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C89" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88"/>
+    </row>
+    <row r="89" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="C89" s="8"/>
       <c r="D89" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>288</v>
+        <v>609</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+      <c r="H89"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C90" s="8"/>
+        <v>608</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="G90" s="4"/>
-      <c r="H90"/>
+        <v>610</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>365</v>
-      </c>
+      <c r="B91" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>127</v>
+        <v>607</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>7</v>
+      <c r="B92" s="8" t="s">
+        <v>362</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>168</v>
+        <v>363</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="H92" s="9"/>
+        <v>127</v>
+      </c>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="H93" s="9"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4" t="s">
+      <c r="C94" s="4"/>
+      <c r="D94" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
+      <c r="F94" s="4"/>
+      <c r="G94" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="H94"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="C95" s="4" t="s">
-        <v>170</v>
+        <v>361</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F95" s="4"/>
+        <v>289</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>445</v>
+      </c>
       <c r="G95" s="4" t="s">
-        <v>449</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="H95"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>450</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="F96" s="4"/>
       <c r="G96" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="H96" s="4"/>
+        <v>447</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C97" s="4"/>
+      <c r="C97" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="D97" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="F97" s="4"/>
+        <v>291</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>448</v>
+      </c>
       <c r="G97" s="4" t="s">
-        <v>452</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="H97" s="4"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>207</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>439</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="F99" s="4"/>
       <c r="G99" s="4" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="C100" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="H100"/>
+        <v>452</v>
+      </c>
     </row>
     <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>174</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H101"/>
     </row>
     <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>161</v>
+        <v>176</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="H102"/>
+    </row>
+    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>210</v>
+      <c r="B103" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E103" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="F103" s="4"/>
+      <c r="E103" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>456</v>
+      </c>
       <c r="G103" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H103" s="4"/>
-    </row>
-    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4" t="s">
+      <c r="D105" s="4"/>
+      <c r="E105" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-    </row>
-    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="H105" s="8"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
     </row>
     <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C106" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>229</v>
+        <v>67</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="H106" s="8"/>
+    </row>
+    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>177</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>67</v>
+        <v>229</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="H107" s="2"/>
+        <v>461</v>
+      </c>
     </row>
     <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H108" s="2"/>
     </row>
@@ -4431,36 +4445,40 @@
         <v>120</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>228</v>
+        <v>68</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>121</v>
+        <v>302</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>466</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="H109" s="2"/>
     </row>
     <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>21</v>
+      <c r="C110" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>85</v>
+        <v>228</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -4468,16 +4486,16 @@
         <v>19</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>305</v>
+        <v>122</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -4485,16 +4503,16 @@
         <v>19</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>225</v>
+        <v>8</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>228</v>
+        <v>85</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -4502,159 +4520,154 @@
         <v>19</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>228</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C115" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="H114" s="4"/>
-    </row>
-    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>229</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="F115" s="4"/>
       <c r="G115" s="4" t="s">
-        <v>471</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="H115" s="4"/>
     </row>
     <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="H116" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="117" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>473</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="H117" s="8"/>
     </row>
     <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>217</v>
+        <v>328</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B120" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-    </row>
-    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>329</v>
-      </c>
+      <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4" t="s">
-        <v>476</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4662,127 +4675,125 @@
         <v>146</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>218</v>
+        <v>327</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H121"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="H122"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="G122" s="4"/>
-      <c r="H122" s="2"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>350</v>
-      </c>
+      <c r="B123" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4" t="s">
-        <v>479</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="G123" s="4"/>
       <c r="H123" s="2"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>219</v>
+        <v>348</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>480</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="F124" s="4"/>
       <c r="G124" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+      <c r="H124" s="2"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>9</v>
+        <v>149</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>317</v>
+        <v>347</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="H125"/>
+        <v>479</v>
+      </c>
     </row>
     <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>482</v>
+        <v>315</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>483</v>
+        <v>428</v>
       </c>
       <c r="H126"/>
     </row>
@@ -4791,74 +4802,76 @@
         <v>9</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>484</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="H127"/>
     </row>
     <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B129" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11" t="s">
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
-    </row>
-    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>320</v>
-      </c>
       <c r="F129" s="16"/>
-      <c r="G129" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="H129" s="4"/>
+      <c r="G129" s="16"/>
     </row>
     <row r="130" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>607</v>
+        <v>39</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>608</v>
+        <v>45</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>229</v>
+        <v>68</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F130" s="16"/>
       <c r="G130" s="16" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H130" s="4"/>
     </row>
@@ -4867,39 +4880,42 @@
         <v>15</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>88</v>
+        <v>605</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>155</v>
+        <v>606</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>130</v>
+        <v>319</v>
       </c>
       <c r="F131" s="16"/>
       <c r="G131" s="16" t="s">
-        <v>421</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="H131" s="4"/>
     </row>
     <row r="132" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C132" s="11"/>
+      <c r="C132" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="D132" s="11" t="s">
         <v>228</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F132" s="16"/>
       <c r="G132" s="16" t="s">
-        <v>487</v>
+        <v>419</v>
       </c>
     </row>
     <row r="133" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4907,73 +4923,73 @@
         <v>88</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="C133" s="11"/>
       <c r="D133" s="11" t="s">
         <v>228</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F133" s="16"/>
       <c r="G133" s="16" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="134" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C134" s="11"/>
       <c r="D134" s="11" t="s">
-        <v>70</v>
+        <v>228</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
+      <c r="G134" s="16" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="135" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="C135" s="11"/>
       <c r="D135" s="11" t="s">
         <v>70</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>322</v>
+        <v>128</v>
       </c>
       <c r="F135" s="16"/>
-      <c r="G135" s="16" t="s">
-        <v>489</v>
-      </c>
+      <c r="G135" s="16"/>
     </row>
     <row r="136" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C136" s="11"/>
       <c r="D136" s="11" t="s">
         <v>70</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F136" s="16"/>
       <c r="G136" s="16" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4981,22 +4997,18 @@
         <v>64</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>359</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C137" s="11"/>
       <c r="D137" s="11" t="s">
         <v>70</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F137" s="16" t="s">
-        <v>491</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F137" s="16"/>
       <c r="G137" s="16" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="138" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5004,20 +5016,22 @@
         <v>64</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>126</v>
+        <v>356</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D138" s="11" t="s">
         <v>70</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F138" s="16"/>
+        <v>322</v>
+      </c>
+      <c r="F138" s="16" t="s">
+        <v>489</v>
+      </c>
       <c r="G138" s="16" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="139" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5025,70 +5039,90 @@
         <v>64</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>220</v>
+        <v>344</v>
       </c>
       <c r="D139" s="11" t="s">
         <v>70</v>
       </c>
       <c r="E139" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F140" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="G140" s="16" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C141" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="F139" s="16" t="s">
+      <c r="D141" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F141" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="G139" s="16" t="s">
+      <c r="G141" s="16" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="D140" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="F140" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="G140" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="H140" s="5"/>
-    </row>
-    <row r="141" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="11" t="s">
+      <c r="H141" s="5"/>
+    </row>
+    <row r="142" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B142" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="C142" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="D142" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E141" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="F141" s="16"/>
-      <c r="G141" s="16" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="150" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="E142" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16" t="s">
+        <v>486</v>
+      </c>
+    </row>
     <row r="151" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="152" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="153" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -5097,8 +5131,8 @@
     <row r="156" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="157" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="158" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="161" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="162" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="163" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -5106,6 +5140,7 @@
     <row r="165" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="166" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="167" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5114,556 +5149,562 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0010C11-95FA-41AF-BA22-FA2D31F1DFAA}">
-  <dimension ref="A1:A108"/>
+  <dimension ref="A1:A109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>534</v>
+      <c r="A37" s="17" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>605</v>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
